--- a/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
@@ -8,27 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="具有相當價值之財產" sheetId="12" r:id="rId12"/>
-    <sheet name="債權" sheetId="13" r:id="rId13"/>
-    <sheet name="債務" sheetId="14" r:id="rId14"/>
-    <sheet name="事業投資" sheetId="15" r:id="rId15"/>
+    <sheet name="具有相當價值之財產" sheetId="2" r:id="rId2"/>
+    <sheet name="債務" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
   <si>
     <t>土地坐落</t>
   </si>
@@ -606,13 +594,52 @@
     <t>薛</t>
   </si>
   <si>
-    <t>建物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項/</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>保 險公司</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>紐約人壽</t>
+  </si>
+  <si>
+    <t>保誠人尋</t>
+  </si>
+  <si>
+    <t>保 險名稱</t>
+  </si>
+  <si>
+    <t>保本111終身</t>
+  </si>
+  <si>
+    <t>美意年年终生壽險</t>
+  </si>
+  <si>
+    <t>聚寶盆變額萬能壽險</t>
+  </si>
+  <si>
+    <t>築夢人生</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備 註</t>
+  </si>
+  <si>
+    <t>躉繳</t>
   </si>
   <si>
     <t>種</t>
@@ -621,165 +648,18 @@
     <t>類</t>
   </si>
   <si>
-    <t>總噸數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及编號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
+    <t>債務</t>
   </si>
   <si>
     <t>人</t>
   </si>
   <si>
-    <t>股</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價，額(單位淨值）</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺秦總額</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項/</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>保 險公司</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>紐約人壽</t>
-  </si>
-  <si>
-    <t>保誠人尋</t>
-  </si>
-  <si>
-    <t>保 險名稱</t>
-  </si>
-  <si>
-    <t>保本111終身</t>
-  </si>
-  <si>
-    <t>美意年年终生壽險</t>
-  </si>
-  <si>
-    <t>聚寶盆變額萬能壽險</t>
-  </si>
-  <si>
-    <t>築夢人生</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備 註</t>
-  </si>
-  <si>
-    <t>躉繳</t>
-  </si>
-  <si>
-    <t>債權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
+    <t>債權人及地址</t>
   </si>
   <si>
     <t>餘額</t>
   </si>
   <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>借款</t>
   </si>
   <si>
@@ -793,21 +673,6 @@
   </si>
   <si>
     <t>94年08月 02日</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生)'原因</t>
   </si>
 </sst>
 </file>
@@ -3049,35 +2914,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
+      <c r="C6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3085,54 +3022,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3140,571 +3032,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2367290</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>113</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>114</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>115</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>138</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2367290</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>139</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2">
         <v>3067394</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺南市安南區神榕段04590000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺南市安南區神榕段04650000地號</t>
@@ -171,9 +174,6 @@
     <t>林南生</t>
   </si>
   <si>
-    <t>S5年06月28日</t>
-  </si>
-  <si>
     <t>85年06月28日</t>
   </si>
   <si>
@@ -192,21 +192,21 @@
     <t>77年08月17曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>LLU貝賈</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>CtzlS貝賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>LLU貝賈</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>CtzlS貝賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -222,21 +222,18 @@
     <t>tmp503c1</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>保誠人尋</t>
   </si>
   <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
     <t>保本111終身</t>
   </si>
   <si>
@@ -261,43 +255,19 @@
     <t>築夢人生</t>
   </si>
   <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>躉繳</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
     <t>借款</t>
   </si>
   <si>
     <t>元大商銀臺南市中西區民生路</t>
   </si>
   <si>
+    <t>96年10月15日</t>
+  </si>
+  <si>
     <t>安泰商業銀行臺南市中西區中山路</t>
-  </si>
-  <si>
-    <t>96年10月15日</t>
   </si>
   <si>
     <t>94年08月02日</t>
@@ -659,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,25 +678,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>16.3</v>
+        <v>15.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>58</v>
@@ -744,7 +720,7 @@
         <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>1720</v>
@@ -753,24 +729,30 @@
         <v>67</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15.1991666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>15.86</v>
+        <v>3.59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>52</v>
@@ -791,7 +773,7 @@
         <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2">
         <v>1720</v>
@@ -800,30 +782,36 @@
         <v>67</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3.44041666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3.59</v>
+        <v>0.22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>63</v>
@@ -838,7 +826,7 @@
         <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2">
         <v>1720</v>
@@ -847,30 +835,36 @@
         <v>67</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.210833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>0.22</v>
+        <v>1.17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>63</v>
@@ -885,7 +879,7 @@
         <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2">
         <v>1720</v>
@@ -894,30 +888,36 @@
         <v>67</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.12125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1.17</v>
+        <v>2.88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>63</v>
@@ -932,7 +932,7 @@
         <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2">
         <v>1720</v>
@@ -941,30 +941,36 @@
         <v>67</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2.88</v>
+        <v>0.59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>63</v>
@@ -979,7 +985,7 @@
         <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2">
         <v>1720</v>
@@ -988,30 +994,36 @@
         <v>67</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.565416666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>0.59</v>
+        <v>1.55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -1026,7 +1038,7 @@
         <v>66</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2">
         <v>1720</v>
@@ -1035,30 +1047,36 @@
         <v>67</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.48541666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>1.55</v>
+        <v>37.78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>63</v>
@@ -1073,7 +1091,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="2">
         <v>1720</v>
@@ -1082,24 +1100,30 @@
         <v>67</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>36.2058333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>37.78</v>
+        <v>132.09</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>52</v>
@@ -1120,7 +1144,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="2">
         <v>1720</v>
@@ -1129,30 +1153,36 @@
         <v>67</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>126.58625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>132.09</v>
+        <v>2.43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>63</v>
@@ -1167,7 +1197,7 @@
         <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2">
         <v>1720</v>
@@ -1176,24 +1206,30 @@
         <v>67</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.32875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>2.43</v>
+        <v>67.69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>52</v>
@@ -1214,7 +1250,7 @@
         <v>66</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12" s="2">
         <v>1720</v>
@@ -1223,30 +1259,36 @@
         <v>67</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>64.8695833333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>67.69</v>
+        <v>111.91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>63</v>
@@ -1261,7 +1303,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2">
         <v>1720</v>
@@ -1270,30 +1312,36 @@
         <v>67</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>107.247083333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>111.91</v>
+        <v>11.43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>63</v>
@@ -1308,180 +1356,204 @@
         <v>66</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>10.95375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>114.28</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>11.43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>114.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>55.14</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>55.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>205.31</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2">
-        <v>114.28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2">
-        <v>55.14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -1496,39 +1568,45 @@
         <v>66</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>205.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9.62</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2">
-        <v>205.31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>63</v>
@@ -1543,133 +1621,151 @@
         <v>66</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>9.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>181.79</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>181.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>90.21</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.95</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2">
-        <v>181.79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>63</v>
@@ -1684,39 +1780,45 @@
         <v>66</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>90.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <v>283.35</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90.21</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>63</v>
@@ -1731,39 +1833,45 @@
         <v>66</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>283.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>213.37</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="2">
-        <v>283.35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>63</v>
@@ -1778,227 +1886,257 @@
         <v>66</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>213.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2">
+        <v>33.34</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>37</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2">
-        <v>213.37</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>33.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24.73</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>39.67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6.69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>25.31</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2">
-        <v>33.34</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>39</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2">
-        <v>24.73</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O27" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>39.67</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6.69</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>63</v>
@@ -2013,39 +2151,45 @@
         <v>66</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="2">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16.06</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O29" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>42</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>25.31</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>63</v>
@@ -2060,39 +2204,45 @@
         <v>66</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>34.63</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O30" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2">
-        <v>16.06</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>63</v>
@@ -2107,39 +2257,45 @@
         <v>66</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>34.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2">
+        <v>396.51</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O31" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>44</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2">
-        <v>34.63</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>63</v>
@@ -2154,39 +2310,45 @@
         <v>66</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>396.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12.86</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O32" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>45</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2">
-        <v>396.51</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>63</v>
@@ -2201,7 +2363,7 @@
         <v>66</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="2">
         <v>1720</v>
@@ -2210,54 +2372,13 @@
         <v>67</v>
       </c>
       <c r="O33" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>12.86</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O34" s="2">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2289,83 +2410,66 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2383,68 +2487,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2367290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2367290</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3067394</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>128</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3067394</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市安南區神榕段04590000地號</t>
+  </si>
+  <si>
     <t>臺南市安南區神榕段04650000地號</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>林南生</t>
   </si>
   <si>
+    <t>S5年06月28日</t>
+  </si>
+  <si>
     <t>85年06月28日</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>77年08月17曰</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
   </si>
   <si>
     <t>CtzlS貝賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,755 +693,755 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>15.86</v>
+        <v>16.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2">
         <v>1720</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>15.1991666666667</v>
+        <v>15.6208333333333</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3.59</v>
+        <v>15.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2">
         <v>1720</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.44041666666667</v>
+        <v>15.1991666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.22</v>
+        <v>3.59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2">
         <v>1720</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.210833333333333</v>
+        <v>3.44041666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1.17</v>
+        <v>0.22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2">
         <v>1720</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.12125</v>
+        <v>0.210833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2.88</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2">
         <v>1720</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>2.76</v>
+        <v>1.12125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>0.59</v>
+        <v>2.88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2">
         <v>1720</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.565416666666667</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1.55</v>
+        <v>0.59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2">
         <v>1720</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.48541666666667</v>
+        <v>0.565416666666667</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>37.78</v>
+        <v>1.55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2">
         <v>1720</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>36.2058333333333</v>
+        <v>1.48541666666667</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>132.09</v>
+        <v>37.78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="2">
         <v>1720</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q10" s="2">
-        <v>126.58625</v>
+        <v>36.2058333333333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>2.43</v>
+        <v>132.09</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2">
         <v>1720</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.32875</v>
+        <v>126.58625</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>67.69</v>
+        <v>2.43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="2">
         <v>1720</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q12" s="2">
-        <v>64.8695833333333</v>
+        <v>2.32875</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>111.91</v>
+        <v>67.69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="2">
         <v>1720</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q13" s="2">
-        <v>107.247083333333</v>
+        <v>64.8695833333333</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>11.43</v>
+        <v>111.91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="2">
         <v>1720</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q14" s="2">
-        <v>10.95375</v>
+        <v>107.247083333333</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>16.8</v>
+        <v>11.43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="2">
         <v>1720</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.958333333333333</v>
       </c>
       <c r="Q15" s="2">
-        <v>16.1</v>
+        <v>10.95375</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>114.28</v>
+        <v>16.8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
@@ -1444,940 +1450,993 @@
         <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2">
         <v>1720</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>114.28</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>55.14</v>
+        <v>114.28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="2">
         <v>1720</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>55.14</v>
+        <v>114.28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>205.31</v>
+        <v>55.14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="2">
         <v>1720</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>205.31</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>9.62</v>
+        <v>205.31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="2">
         <v>1720</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>9.62</v>
+        <v>205.31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>7.95</v>
+        <v>9.62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="2">
         <v>1720</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>7.95</v>
+        <v>9.62</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>181.79</v>
+        <v>7.95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="2">
         <v>1720</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>181.79</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>90.21</v>
+        <v>181.79</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" s="2">
         <v>1720</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>90.21</v>
+        <v>181.79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>283.35</v>
+        <v>90.21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="2">
         <v>1720</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>283.35</v>
+        <v>90.21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>213.37</v>
+        <v>283.35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="2">
         <v>1720</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>213.37</v>
+        <v>283.35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>33.34</v>
+        <v>213.37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="2">
         <v>1720</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>33.34</v>
+        <v>213.37</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>24.73</v>
+        <v>33.34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="2">
         <v>1720</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>24.73</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>39.67</v>
+        <v>24.73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="2">
         <v>1720</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>39.67</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>6.69</v>
+        <v>39.67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="2">
         <v>1720</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>6.69</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>25.31</v>
+        <v>6.69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" s="2">
         <v>1720</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>25.31</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>16.06</v>
+        <v>25.31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" s="2">
         <v>1720</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>16.06</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>34.63</v>
+        <v>16.06</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="2">
         <v>1720</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>34.63</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>396.51</v>
+        <v>34.63</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="2">
         <v>1720</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>396.51</v>
+        <v>34.63</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>12.86</v>
+        <v>396.51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="2">
         <v>1720</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
       </c>
       <c r="Q33" s="2">
+        <v>396.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12.86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="2">
+        <v>46</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
         <v>12.86</v>
       </c>
     </row>
@@ -2388,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2396,80 +2455,97 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>104</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2487,45 +2563,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>2367290</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="2">
-        <v>3067394</v>
+        <v>2367290</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3067394</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="具有相當價值之財產" sheetId="2" r:id="rId2"/>
+    <sheet name="保險" sheetId="2" r:id="rId2"/>
     <sheet name="債務" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -228,28 +228,16 @@
     <t>tmp503c1</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>保本111終身</t>
+  </si>
+  <si>
     <t>紐約人壽</t>
   </si>
   <si>
     <t>保誠人尋</t>
-  </si>
-  <si>
-    <t>保本111終身</t>
   </si>
   <si>
     <t>美意年年终生壽險</t>
@@ -2447,7 +2435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2461,15 +2449,13 @@
         <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>70</v>
@@ -2478,21 +2464,19 @@
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>51</v>
@@ -2501,51 +2485,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2563,22 +2532,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>2367290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2586,22 +2555,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2">
         <v>2367290</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2609,22 +2578,22 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2">
         <v>3067394</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2011-12-30_財產申報表_tmp503c1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -228,18 +228,21 @@
     <t>tmp503c1</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>紐約人壽</t>
+  </si>
+  <si>
+    <t>保誠人尋</t>
+  </si>
+  <si>
     <t>保本111終身</t>
   </si>
   <si>
-    <t>紐約人壽</t>
-  </si>
-  <si>
-    <t>保誠人尋</t>
-  </si>
-  <si>
     <t>美意年年终生壽險</t>
   </si>
   <si>
@@ -249,7 +252,13 @@
     <t>築夢人生</t>
   </si>
   <si>
-    <t>躉繳</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>借款</t>
@@ -258,13 +267,16 @@
     <t>元大商銀臺南市中西區民生路</t>
   </si>
   <si>
+    <t>安泰商業銀行臺南市中西區中山路</t>
+  </si>
+  <si>
     <t>96年10月15日</t>
   </si>
   <si>
-    <t>安泰商業銀行臺南市中西區中山路</t>
-  </si>
-  <si>
     <t>94年08月02日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2435,55 +2447,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -2491,16 +2563,34 @@
         <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -2508,13 +2598,31 @@
         <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1720</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2524,76 +2632,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2367290</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="2">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2">
         <v>2367290</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3067394</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="2">
-        <v>3067394</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
